--- a/biology/Médecine/Rougissement_(physiologie)/Rougissement_(physiologie).xlsx
+++ b/biology/Médecine/Rougissement_(physiologie)/Rougissement_(physiologie).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Pour un individu, le rougissement est le fait de devenir rouge sur le visage et d’autres parties de la peau, causé par une variété de conditions physiologiques. Le rougissement est distingué par une rougeur quelconque qui se limite en général au visage, aux joues et aux oreilles, et reflète souvent l’embarras ou la gêne. La phobie de rougir en public se nomme l’éreutophobie (eruthrós signifiant « rouge » en grec ancien).
 Le rougissement est également un symptôme cardinal du syndrome carcinoïde.
-Une étude de 2024 menée sur des poules du Sussex démontre qu'elles sont capable de rougir à différents degrés suivant leurs émotions[1].
+Une étude de 2024 menée sur des poules du Sussex démontre qu'elles sont capable de rougir à différents degrés suivant leurs émotions.
 </t>
         </is>
       </c>
@@ -513,7 +525,9 @@
           <t>Causes du rougissement</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Activité physique intense (durant ce type d’activité, le sang circule beaucoup plus vite)
 Émotions : colère, embarras… (voir érythème pudique)
